--- a/mySystem/mySystem/xls/BPVBag/10 SOP-MFG-503-R01A  单管口热合机运行记录.xlsx
+++ b/mySystem/mySystem/xls/BPVBag/10 SOP-MFG-503-R01A  单管口热合机运行记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017年工作\2017-生产指令台账\ERP\306,  BPV生产记录\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCXFD\Github\hzkx\mitcpro\mySystem\mySystem\xls\BPVBag\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>WELDING PRESSURE</t>
   </si>
@@ -544,15 +544,29 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>膜代码：</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>接口代码：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">产品批号：                                                              </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       L   </t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -563,7 +577,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -720,6 +734,31 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1240,7 +1279,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1355,203 +1394,191 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1861,8 +1888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1878,14 +1905,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
       <c r="G1" s="30"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1897,29 +1924,29 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="41.25" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
     </row>
     <row r="3" spans="1:13" ht="26.45" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="75"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="32" t="s">
         <v>26</v>
       </c>
@@ -1931,47 +1958,47 @@
       </c>
       <c r="J3" s="33"/>
       <c r="K3" s="34"/>
-      <c r="L3" s="60" t="s">
+      <c r="L3" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="60"/>
+      <c r="M3" s="56"/>
     </row>
     <row r="4" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="89" t="s">
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="67" t="s">
+      <c r="I4" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="64" t="s">
+      <c r="J4" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="70" t="s">
+      <c r="L4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="61" t="s">
+      <c r="M4" s="57" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="22.5">
-      <c r="A5" s="84"/>
-      <c r="B5" s="82"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="25" t="s">
         <v>0</v>
       </c>
@@ -1984,19 +2011,19 @@
       <c r="F5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="88" t="s">
+      <c r="G5" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="90"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="62"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="58"/>
     </row>
     <row r="6" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A6" s="84"/>
-      <c r="B6" s="82"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="25" t="s">
         <v>5</v>
       </c>
@@ -2009,16 +2036,16 @@
       <c r="F6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="88"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="62"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="58"/>
     </row>
     <row r="7" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A7" s="85"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="21" t="s">
         <v>20</v>
       </c>
@@ -2028,11 +2055,11 @@
       <c r="F7" s="14"/>
       <c r="G7" s="31"/>
       <c r="H7" s="35"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="63"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="59"/>
     </row>
     <row r="8" spans="1:13" ht="22.5" customHeight="1">
       <c r="A8" s="11">
@@ -2239,36 +2266,28 @@
       <c r="M19" s="10"/>
     </row>
     <row r="20" spans="1:13" ht="63.75" customHeight="1">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="78" t="s">
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="79"/>
-      <c r="L20" s="76" t="s">
+      <c r="K20" s="41"/>
+      <c r="L20" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="M20" s="77"/>
+      <c r="M20" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H4:H6"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="L3:M3"/>
@@ -2278,6 +2297,14 @@
     <mergeCell ref="K4:K7"/>
     <mergeCell ref="L4:L7"/>
     <mergeCell ref="A3:D3"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H4:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2291,7 +2318,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:G4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2310,14 +2337,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
       <c r="G1" s="36"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -2328,78 +2355,78 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="41.25" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
     </row>
     <row r="3" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="37" t="s">
+      <c r="B3" s="81"/>
+      <c r="C3" s="97" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="98"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="80"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="98"/>
-      <c r="K3" s="38" t="s">
+      <c r="J3" s="81"/>
+      <c r="K3" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="39"/>
+      <c r="L3" s="81"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="102" t="s">
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="67" t="s">
+      <c r="I4" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="70" t="s">
+      <c r="J4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="95" t="s">
+      <c r="K4" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="61" t="s">
+      <c r="L4" s="57" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="22.5">
-      <c r="A5" s="84"/>
-      <c r="B5" s="82"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="25" t="s">
         <v>0</v>
       </c>
@@ -2412,18 +2439,18 @@
       <c r="F5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="88" t="s">
+      <c r="G5" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="90"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="62"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="58"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="84"/>
-      <c r="B6" s="82"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="25" t="s">
         <v>5</v>
       </c>
@@ -2436,15 +2463,15 @@
       <c r="F6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="88"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="62"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="58"/>
     </row>
     <row r="7" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A7" s="85"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="21" t="s">
         <v>20</v>
       </c>
@@ -2454,271 +2481,244 @@
       <c r="F7" s="14"/>
       <c r="G7" s="31"/>
       <c r="H7" s="35"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="63"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="59"/>
     </row>
     <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="11">
-        <v>1</v>
-      </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="45" t="s">
-        <v>32</v>
-      </c>
+      <c r="A8" s="82"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="83"/>
     </row>
     <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="6">
-        <v>2</v>
-      </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="51"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="85"/>
     </row>
     <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="6">
-        <v>3</v>
-      </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="51"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="85"/>
     </row>
     <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="6">
-        <v>4</v>
-      </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="51"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="85"/>
     </row>
     <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="6">
-        <v>5</v>
-      </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="51"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="85"/>
     </row>
     <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="6">
-        <v>6</v>
-      </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="51"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="85"/>
     </row>
     <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="6">
-        <v>7</v>
-      </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="51"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="85"/>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="6">
-        <v>8</v>
-      </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="51"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="85"/>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="6">
-        <v>9</v>
-      </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="51"/>
+      <c r="A16" s="84"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="85"/>
     </row>
     <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="6">
-        <v>10</v>
-      </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="51"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="85"/>
     </row>
     <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="6">
-        <v>11</v>
-      </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="51"/>
+      <c r="A18" s="84"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="85"/>
     </row>
     <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="6">
-        <v>12</v>
-      </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="57"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="86"/>
     </row>
     <row r="20" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="6">
-        <v>13</v>
-      </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="57"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="86"/>
     </row>
     <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="6">
-        <v>14</v>
-      </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="57"/>
+      <c r="A21" s="84"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="86"/>
     </row>
     <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="6">
-        <v>15</v>
-      </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="57"/>
+      <c r="A22" s="84"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="86"/>
     </row>
     <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="92" t="s">
+      <c r="A23" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="93"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="94"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="77"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="17">
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="L4:L7"/>
+    <mergeCell ref="G5:G6"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A4:A7"/>
@@ -2726,11 +2726,11 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="H4:H6"/>
     <mergeCell ref="I4:I7"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
